--- a/Assets/ExcelDatas/PhaseData.xlsx
+++ b/Assets/ExcelDatas/PhaseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B724A7-C916-4B7D-A269-5E3C356E9FE2}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885F8151-05DF-4B73-AC3F-1CFD33080911}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="285" yWindow="2085" windowWidth="18645" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -439,10 +439,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,7 +943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
@@ -1032,7 +1030,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1055,7 +1053,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1078,7 +1076,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -1101,7 +1099,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1124,7 +1122,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -1147,7 +1145,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>

--- a/Assets/ExcelDatas/PhaseData.xlsx
+++ b/Assets/ExcelDatas/PhaseData.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885F8151-05DF-4B73-AC3F-1CFD33080911}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="2085" windowWidth="18645" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -439,6 +439,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Assets/ExcelDatas/PhaseData.xlsx
+++ b/Assets/ExcelDatas/PhaseData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885F8151-05DF-4B73-AC3F-1CFD33080911}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFEC2459-0431-4837-8E8A-8C1054438D99}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -948,7 +948,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1046,13 +1046,13 @@
         <v>37</v>
       </c>
       <c r="E4" s="2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.6">
@@ -1069,13 +1069,13 @@
         <v>38</v>
       </c>
       <c r="E5" s="2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.6">
@@ -1092,13 +1092,13 @@
         <v>39</v>
       </c>
       <c r="E6" s="2">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.6">
@@ -1115,13 +1115,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
-        <v>180</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
@@ -1138,13 +1138,13 @@
         <v>41</v>
       </c>
       <c r="E8" s="2">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.6">
@@ -1161,13 +1161,13 @@
         <v>42</v>
       </c>
       <c r="E9" s="2">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/PhaseData.xlsx
+++ b/Assets/ExcelDatas/PhaseData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{C80ED330-9BD9-4573-9F2A-40B854F533FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFEC2459-0431-4837-8E8A-8C1054438D99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BFC23-87B2-48CB-823C-C852E1DCD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="8472" yWindow="1500" windowWidth="16788" windowHeight="11256" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -170,23 +170,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage1_Phase1</t>
-  </si>
-  <si>
-    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage2_Phase1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage2_Phase2</t>
-  </si>
-  <si>
-    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage3_Phase1</t>
-  </si>
-  <si>
-    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage3_Phase2</t>
-  </si>
-  <si>
-    <t>GitHub\Project_Advence\Assets\Resources\Background\Stage3_Phase3</t>
+    <t>Background/Stage1_Phase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background/Stage2_Phase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background/Stage2_Phase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background/Stage3_Phase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background/Stage3_Phase2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background/Stage3_Phase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,10 +444,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,18 +765,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="8.75" style="5"/>
-    <col min="7" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="8.69921875" style="5"/>
+    <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -809,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -826,7 +827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -843,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -863,7 +864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -883,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -903,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -920,7 +921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -948,22 +949,22 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="3"/>
+    <col min="6" max="6" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -986,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>51</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>52</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>53</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>54</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>55</v>
       </c>

--- a/Assets/ExcelDatas/PhaseData.xlsx
+++ b/Assets/ExcelDatas/PhaseData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BFC23-87B2-48CB-823C-C852E1DCD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4569941-C3A8-4C25-837F-0BB498BE9159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8472" yWindow="1500" windowWidth="16788" windowHeight="11256" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="30975" yWindow="1605" windowWidth="24495" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,34 @@
   </si>
   <si>
     <t>Background/Stage3_Phase3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhaseValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhaseValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhaseNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +304,67 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -447,16 +535,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8625A633-6A8D-417D-BBE6-80F0F4A00567}" name="Background_Local" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:J9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{CFA3003B-F438-4CE9-99FA-0BDE8A71B7CF}" name="PhaseNumber" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8625A633-6A8D-417D-BBE6-80F0F4A00567}" name="Background_Local" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{90AFA540-4A82-42E5-8C46-9C6D41BDA798}" name="PhaseValue1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A49A88B8-CCBE-4536-8B75-2413F30D3B51}" name="PhaseValue2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -765,18 +856,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="1"/>
-    <col min="6" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="8.75" style="5"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -793,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -810,7 +901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -827,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -844,7 +935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -864,7 +955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -884,7 +975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -904,7 +995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -921,7 +1012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -946,25 +1037,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="3"/>
+    <col min="3" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -975,19 +1064,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -998,10 +1096,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -1009,8 +1107,17 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1021,19 +1128,28 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -1043,20 +1159,29 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>51</v>
       </c>
@@ -1066,20 +1191,29 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>52</v>
       </c>
@@ -1089,20 +1223,29 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>53</v>
       </c>
@@ -1112,20 +1255,29 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>54</v>
       </c>
@@ -1135,20 +1287,29 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>55</v>
       </c>
@@ -1158,17 +1319,26 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>450</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/PhaseData.xlsx
+++ b/Assets/ExcelDatas/PhaseData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4569941-C3A8-4C25-837F-0BB498BE9159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE935C89-76BA-4F81-8F4C-01EA27A51620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30975" yWindow="1605" windowWidth="24495" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>PhaseNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatternMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatternMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +312,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -459,6 +487,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -535,19 +583,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{CFA3003B-F438-4CE9-99FA-0BDE8A71B7CF}" name="PhaseNumber" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8625A633-6A8D-417D-BBE6-80F0F4A00567}" name="Background_Local" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{90AFA540-4A82-42E5-8C46-9C6D41BDA798}" name="PhaseValue1" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A49A88B8-CCBE-4536-8B75-2413F30D3B51}" name="PhaseValue2" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:L9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:L9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{CC8E0CCD-C85C-46BA-929C-F5BBFB5A1A79}" name="Stage" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CFA3003B-F438-4CE9-99FA-0BDE8A71B7CF}" name="PhaseNumber" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8625A633-6A8D-417D-BBE6-80F0F4A00567}" name="Background_Local" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{FA1A94B9-BAC2-4255-81C5-CD7CB07A2541}" name="PatternMin" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{D3C830BE-4E63-4B2C-99D7-89C507CB395A}" name="PatternMax" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{90AFA540-4A82-42E5-8C46-9C6D41BDA798}" name="PhaseValue1" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A49A88B8-CCBE-4536-8B75-2413F30D3B51}" name="PhaseValue2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -856,18 +906,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="8.75" style="5"/>
-    <col min="7" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="8.69921875" style="5"/>
+    <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -901,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -918,7 +968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -935,7 +985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -955,7 +1005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -975,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -995,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1037,23 +1087,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.19921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="3"/>
+    <col min="7" max="7" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1078,14 +1133,20 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1110,14 +1171,20 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1143,13 +1210,19 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -1175,13 +1248,19 @@
         <v>200</v>
       </c>
       <c r="I4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2028</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.8</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>51</v>
       </c>
@@ -1207,13 +1286,19 @@
         <v>250</v>
       </c>
       <c r="I5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2028</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>52</v>
       </c>
@@ -1239,13 +1324,19 @@
         <v>300</v>
       </c>
       <c r="I6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2028</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.8</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>53</v>
       </c>
@@ -1271,13 +1362,19 @@
         <v>350</v>
       </c>
       <c r="I7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2028</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.8</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>54</v>
       </c>
@@ -1303,13 +1400,19 @@
         <v>400</v>
       </c>
       <c r="I8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2028</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.8</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>55</v>
       </c>
@@ -1335,9 +1438,15 @@
         <v>450</v>
       </c>
       <c r="I9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2028</v>
+      </c>
+      <c r="K9" s="2">
         <v>0.8</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>1.2</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/PhaseData.xlsx
+++ b/Assets/ExcelDatas/PhaseData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE935C89-76BA-4F81-8F4C-01EA27A51620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4C776D-EC99-4F81-B656-A1E3DF3CB461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="3255" yWindow="3165" windowWidth="20595" windowHeight="13260" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -594,10 +594,10 @@
     <tableColumn id="9" xr3:uid="{BF845FF7-45A1-459C-90FB-8D626C86D914}" name="ScrollSpeed" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{10204976-6592-4FB9-951E-15CCC0EC3849}" name="FirstPrintMonster" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{9A6465BD-2936-47C4-855B-716B5E435C3F}" name="TargetMonsterValue" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{FA1A94B9-BAC2-4255-81C5-CD7CB07A2541}" name="PatternMin" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{D3C830BE-4E63-4B2C-99D7-89C507CB395A}" name="PatternMax" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{90AFA540-4A82-42E5-8C46-9C6D41BDA798}" name="PhaseValue1" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A49A88B8-CCBE-4536-8B75-2413F30D3B51}" name="PhaseValue2" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{FA1A94B9-BAC2-4255-81C5-CD7CB07A2541}" name="PatternMin" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{D3C830BE-4E63-4B2C-99D7-89C507CB395A}" name="PatternMax" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{90AFA540-4A82-42E5-8C46-9C6D41BDA798}" name="PhaseValue1" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A49A88B8-CCBE-4536-8B75-2413F30D3B51}" name="PhaseValue2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,18 +906,18 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="1"/>
-    <col min="6" max="6" width="8.69921875" style="5"/>
-    <col min="7" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="8.75" style="5"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -951,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -985,7 +985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1090,25 +1090,25 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="3"/>
+    <col min="10" max="10" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I4" s="2">
         <v>2000</v>
@@ -1260,7 +1260,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>51</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="2">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="I5" s="2">
         <v>2000</v>
@@ -1298,7 +1298,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>52</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="2">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I6" s="2">
         <v>2000</v>
@@ -1336,7 +1336,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>53</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="I7" s="2">
         <v>2000</v>
@@ -1374,7 +1374,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>54</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I8" s="2">
         <v>2000</v>
@@ -1412,7 +1412,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>55</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="2">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="I9" s="2">
         <v>2000</v>
